--- a/xlsx/君主立宪政体_intext.xlsx
+++ b/xlsx/君主立宪政体_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
   <si>
     <t>君主立宪政体</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>政策_政策_行政_君主立宪政体</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>國王</t>
+    <t>国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>親王</t>
+    <t>亲王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC</t>
@@ -299,25 +299,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E7%89%B9%E6%AC%8A</t>
   </si>
   <si>
-    <t>皇家特權</t>
+    <t>皇家特权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1975%E5%B9%B4%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%AE%AA%E6%94%BF%E5%8D%B1%E6%9C%BA</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E7%8E%8B</t>
   </si>
   <si>
-    <t>約翰王</t>
+    <t>约翰王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AE%AA%E7%AB%A0</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E4%BA%8C%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>詹姆斯二世 (英格蘭)</t>
+    <t>詹姆斯二世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
@@ -467,15 +467,12 @@
     <t>https://zh.wikipedia.org/wiki/1848%E5%B9%B4%E6%AD%90%E6%B4%B2%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1848年歐洲革命</t>
+    <t>1848年欧洲革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
   </si>
   <si>
@@ -491,25 +488,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制君主立憲制</t>
+    <t>议会制君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>君權神授</t>
+    <t>君权神授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%9D%83%E5%88%B6</t>
@@ -521,25 +518,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>理性主義</t>
+    <t>理性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>波蘭立陶宛聯邦</t>
+    <t>波兰立陶宛联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99</t>
@@ -551,19 +548,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第一帝國</t>
+    <t>法兰西第一帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%B6%AD%E6%96%B0</t>
   </si>
   <si>
-    <t>明治維新</t>
+    <t>明治维新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%97%E7%BB%B4%E7%8E%8B%E6%9C%9D</t>
@@ -575,19 +572,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>政變</t>
+    <t>政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -599,15 +596,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
   </si>
   <si>
-    <t>阿聯酋</t>
+    <t>阿联酋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
   </si>
   <si>
-    <t>议会制君主立宪制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%81%E5%A4%A9%E7%9A%87%E5%88%B6</t>
   </si>
   <si>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E5%93%88%C2%B7%E5%93%87%E9%9B%86%E6%8B%89%E9%9A%86%E5%8A%9F</t>
@@ -635,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%8B%89%E8%82%B2%C2%B7%E8%A9%B9%E6%AD%90%E6%9F%A5</t>
   </si>
   <si>
-    <t>帕拉育·詹歐查</t>
+    <t>帕拉育·詹欧查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>泰國國王</t>
+    <t>泰国国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E6%95%AC</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%9C%80%E9%AB%98%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>馬來西亞最高元首</t>
+    <t>马来西亚最高元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E8%8E%AB%E5%93%88%E6%9C%AB%E4%BA%94%E4%B8%96</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>英聯邦</t>
+    <t>英联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%BE%85%E6%95%A6%C2%B7%E8%A5%BF%E5%93%88%E8%8E%AB%E5%B0%BC</t>
   </si>
   <si>
-    <t>諾羅敦·西哈莫尼</t>
+    <t>诺罗敦·西哈莫尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%A3%AE</t>
@@ -713,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%96%E6%9E%97%C2%B7%E6%89%98%E5%82%91</t>
   </si>
   <si>
-    <t>策林·托傑</t>
+    <t>策林·托杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B7%B4%E8%B5%AB%C2%B7%E8%89%BE%E5%93%88%E9%82%81%E5%BE%B7%C2%B7%E8%B3%88%E6%AF%94%E7%88%BE%C2%B7%E8%96%A9%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>薩巴赫·艾哈邁德·賈比爾·薩巴赫</t>
+    <t>萨巴赫·艾哈迈德·贾比尔·萨巴赫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jaber_Al-Mubarak_Al-Hamad_Al-Sabah</t>
@@ -785,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>日本內閣總理大臣</t>
+    <t>日本内阁总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E6%99%8B%E4%B8%89</t>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%8D%81%E5%85%AD%E4%B8%96%C2%B7%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB</t>
   </si>
   <si>
-    <t>卡爾十六世·古斯塔夫</t>
+    <t>卡尔十六世·古斯塔夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E5%87%A1%C2%B7%E6%B4%9B%E5%A4%AB%E6%96%87</t>
@@ -857,43 +851,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>瑪格麗特二世</t>
+    <t>玛格丽特二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%8B%92%C2%B7%E6%89%98%E5%AF%A7-%E6%96%BD%E5%AF%86%E7%89%B9</t>
   </si>
   <si>
-    <t>赫勒·托寧-施密特</t>
+    <t>赫勒·托宁-施密特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89-%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7_(%E8%8D%B7%E8%98%AD)</t>
   </si>
   <si>
-    <t>威廉-亞歷山大 (荷蘭)</t>
+    <t>威廉-亚历山大 (荷兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%91%82%E7%89%B9</t>
   </si>
   <si>
-    <t>馬克·呂特</t>
+    <t>马克·吕特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE_(%E6%AF%94%E5%88%A9%E6%97%B6)</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E4%BD%A9%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>費利佩六世</t>
+    <t>费利佩六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E4%BA%9A%E8%AF%BA%C2%B7%E6%8B%89%E9%9C%8D%E4%BC%8A</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E4%BA%9E%E7%95%B6%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>漢斯·亞當二世</t>
+    <t>汉斯·亚当二世</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adrian_Hasler</t>
@@ -941,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%B2%9D%E4%BA%8C%E4%B8%96_(%E6%91%A9%E7%B4%8D%E5%93%A5)</t>
   </si>
   <si>
-    <t>阿爾貝二世 (摩納哥)</t>
+    <t>阿尔贝二世 (摩纳哥)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Michel_Roger</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>法國總統</t>
+    <t>法国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%A9%AC%E7%BA%BD%E5%9F%83%E5%B0%94%C2%B7%E9%A9%AC%E5%85%8B%E9%BE%99</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%AE%89%C2%B7%E6%81%A9%E9%87%8C%E5%85%8B%C2%B7%E6%AF%94%E9%9F%8B%E6%96%AF%C2%B7%E8%A5%BF%E8%A5%BF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>霍安·恩里克·比韋斯·西西利亞</t>
+    <t>霍安·恩里克·比韦斯·西西利亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Antoni_Mart%C3%AD</t>
@@ -1013,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%9D%9C%E9%AD%AF%E5%A4%9A</t>
   </si>
   <si>
-    <t>賈斯汀·杜魯多</t>
+    <t>贾斯汀·杜鲁多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaston_Browne</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%BD%90%E5%B0%94%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
@@ -1091,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E5%86%88%E8%90%A8%E5%B0%94%E7%BB%B4%E6%96%AF</t>
@@ -1103,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%80%9D%C2%B7%E7%B1%B3%E5%88%87%E5%B0%94</t>
@@ -1121,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%A5%BF%E4%BA%9E%C2%B7%E7%B1%B3%E5%8B%92</t>
   </si>
   <si>
-    <t>波西亞·米勒</t>
+    <t>波西亚·米勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E9%BD%90%E8%80%B6%E4%B8%89%E4%B8%96</t>
@@ -1139,21 +1133,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E5%A1%94%E5%B7%B4%E5%85%A7</t>
   </si>
   <si>
-    <t>湯姆·塔巴內</t>
+    <t>汤姆·塔巴内</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%A2%E6%89%98%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>萊索托國王</t>
+    <t>莱索托国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>国家元首</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E5%AE%AA%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
@@ -1217,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%99%AE%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>圖普六世</t>
+    <t>图普六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E5%88%A9%E8%A5%BF%C2%B7%E6%B3%A2%E5%B8%8C%E7%93%A6</t>
@@ -1235,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%9C%8B</t>
   </si>
   <si>
-    <t>君主國</t>
+    <t>君主国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1253,25 +1244,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%8B%B1%E6%A0%BC%E5%88%A9%E5%B8%8C</t>
   </si>
   <si>
-    <t>比爾·英格利希</t>
+    <t>比尔·英格利希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%9C%8B%E5%8D%94%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英國協王國</t>
+    <t>大英国协王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%85%A7%E7%88%BE%C2%B7%E7%B4%A2%E6%9C%AC%E5%98%89</t>
   </si>
   <si>
-    <t>埃內爾·索本嘉</t>
+    <t>埃内尔·索本嘉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B</t>
@@ -1313,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%B4%8D%E8%A5%BF%C2%B7%E7%B4%A2%E5%8A%A0%E7%93%A6%E9%9B%B7</t>
   </si>
   <si>
-    <t>梅納西·索加瓦雷</t>
+    <t>梅纳西·索加瓦雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E7%BB%84%E7%BB%87</t>
@@ -1331,25 +1322,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%86%B2%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>立憲運動</t>
+    <t>立宪运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A6%AE%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>光榮革命</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B9%E7%BE%85%E7%AB%8B%E6%86%B2%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>暹羅立憲革命</t>
+    <t>暹罗立宪革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3939,7 +3927,7 @@
         <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3965,10 +3953,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3994,10 +3982,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>10</v>
@@ -4023,10 +4011,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4052,10 +4040,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4081,10 +4069,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4110,10 +4098,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4139,10 +4127,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4197,10 +4185,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4226,10 +4214,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4255,10 +4243,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4284,10 +4272,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4313,10 +4301,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4342,10 +4330,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4371,10 +4359,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4400,10 +4388,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4429,10 +4417,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4458,10 +4446,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4487,10 +4475,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4516,10 +4504,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4545,10 +4533,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4574,10 +4562,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4603,10 +4591,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -4632,10 +4620,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -4661,10 +4649,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
@@ -4690,10 +4678,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4719,10 +4707,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>25</v>
@@ -4748,10 +4736,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4777,10 +4765,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4806,10 +4794,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4835,10 +4823,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4864,10 +4852,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4893,10 +4881,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4922,10 +4910,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4951,10 +4939,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>19</v>
@@ -4980,10 +4968,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5009,10 +4997,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5038,10 +5026,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5067,10 +5055,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>5</v>
@@ -5096,10 +5084,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5125,10 +5113,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5154,10 +5142,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5183,10 +5171,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5212,10 +5200,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5241,10 +5229,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5270,10 +5258,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5299,10 +5287,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5328,10 +5316,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5357,10 +5345,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5386,10 +5374,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5415,10 +5403,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5444,10 +5432,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5473,10 +5461,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5502,10 +5490,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5531,10 +5519,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5589,10 +5577,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>20</v>
@@ -5618,10 +5606,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>18</v>
@@ -5647,10 +5635,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5676,10 +5664,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5705,10 +5693,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5734,10 +5722,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5763,10 +5751,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5792,10 +5780,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5821,10 +5809,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5850,10 +5838,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5879,10 +5867,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5908,10 +5896,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5937,10 +5925,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5966,10 +5954,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5995,10 +5983,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6024,10 +6012,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6053,10 +6041,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6082,10 +6070,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6111,10 +6099,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6140,10 +6128,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6169,10 +6157,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6198,10 +6186,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6227,10 +6215,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6256,10 +6244,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6285,10 +6273,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6314,10 +6302,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6343,10 +6331,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6372,10 +6360,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6401,10 +6389,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6430,10 +6418,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6459,10 +6447,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6488,10 +6476,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6517,10 +6505,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6546,10 +6534,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6575,10 +6563,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6604,10 +6592,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6633,10 +6621,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6662,10 +6650,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6691,10 +6679,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6720,10 +6708,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6749,10 +6737,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6778,10 +6766,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6807,10 +6795,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6836,10 +6824,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6865,10 +6853,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6894,10 +6882,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6923,10 +6911,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6952,10 +6940,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6981,10 +6969,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7010,10 +6998,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7039,10 +7027,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7068,10 +7056,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7097,10 +7085,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7126,10 +7114,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7155,10 +7143,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7184,10 +7172,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7213,10 +7201,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7242,10 +7230,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7271,10 +7259,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7300,10 +7288,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7329,10 +7317,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7358,10 +7346,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7387,10 +7375,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7416,10 +7404,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7445,10 +7433,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7474,10 +7462,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7503,10 +7491,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7532,10 +7520,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7561,10 +7549,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7590,10 +7578,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7619,10 +7607,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7648,10 +7636,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -7677,10 +7665,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7706,10 +7694,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7735,10 +7723,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7764,10 +7752,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7793,10 +7781,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7822,10 +7810,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7851,10 +7839,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7880,10 +7868,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -7909,10 +7897,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7938,10 +7926,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7967,10 +7955,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7996,10 +7984,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8025,10 +8013,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8054,10 +8042,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8083,10 +8071,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8112,10 +8100,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8141,10 +8129,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8170,10 +8158,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8199,10 +8187,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>138</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8228,10 +8216,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8257,10 +8245,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8286,10 +8274,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8315,10 +8303,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>6</v>
@@ -8344,10 +8332,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
